--- a/INTLINE/data/193/ABS/536802.xlsx
+++ b/INTLINE/data/193/ABS/536802.xlsx
@@ -12,53 +12,53 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2717881A">Data1!$D$1:$D$10,Data1!$D$11:$D$617</definedName>
-    <definedName name="A2717881A_Data">Data1!$D$11:$D$617</definedName>
-    <definedName name="A2717881A_Latest">Data1!$D$617</definedName>
-    <definedName name="A2717883F">Data1!$C$1:$C$10,Data1!$C$11:$C$617</definedName>
-    <definedName name="A2717883F_Data">Data1!$C$11:$C$617</definedName>
-    <definedName name="A2717883F_Latest">Data1!$C$617</definedName>
-    <definedName name="A2717884J">Data1!$E$1:$E$10,Data1!$E$11:$E$617</definedName>
-    <definedName name="A2717884J_Data">Data1!$E$11:$E$617</definedName>
-    <definedName name="A2717884J_Latest">Data1!$E$617</definedName>
-    <definedName name="A2717891F">Data1!$J$1:$J$10,Data1!$J$11:$J$617</definedName>
-    <definedName name="A2717891F_Data">Data1!$J$11:$J$617</definedName>
-    <definedName name="A2717891F_Latest">Data1!$J$617</definedName>
-    <definedName name="A2717903C">Data1!$B$1:$B$10,Data1!$B$11:$B$617</definedName>
-    <definedName name="A2717903C_Data">Data1!$B$11:$B$617</definedName>
-    <definedName name="A2717903C_Latest">Data1!$B$617</definedName>
-    <definedName name="A2717931L">Data1!$F$1:$F$10,Data1!$F$11:$F$617</definedName>
-    <definedName name="A2717931L_Data">Data1!$F$11:$F$617</definedName>
-    <definedName name="A2717931L_Latest">Data1!$F$617</definedName>
-    <definedName name="A2718034F">Data1!$G$1:$G$10,Data1!$G$11:$G$617</definedName>
-    <definedName name="A2718034F_Data">Data1!$G$11:$G$617</definedName>
-    <definedName name="A2718034F_Latest">Data1!$G$617</definedName>
-    <definedName name="A2718037L">Data1!$H$1:$H$10,Data1!$H$11:$H$617</definedName>
-    <definedName name="A2718037L_Data">Data1!$H$11:$H$617</definedName>
-    <definedName name="A2718037L_Latest">Data1!$H$617</definedName>
-    <definedName name="A2718054R">Data1!$K$1:$K$10,Data1!$K$11:$K$617</definedName>
-    <definedName name="A2718054R_Data">Data1!$K$11:$K$617</definedName>
-    <definedName name="A2718054R_Latest">Data1!$K$617</definedName>
-    <definedName name="A2718056V">Data1!$L$1:$L$10,Data1!$L$11:$L$617</definedName>
-    <definedName name="A2718056V_Data">Data1!$L$11:$L$617</definedName>
-    <definedName name="A2718056V_Latest">Data1!$L$617</definedName>
-    <definedName name="A2718126R">Data1!$M$1:$M$10,Data1!$M$11:$M$617</definedName>
-    <definedName name="A2718126R_Data">Data1!$M$11:$M$617</definedName>
-    <definedName name="A2718126R_Latest">Data1!$M$617</definedName>
-    <definedName name="A2718182J">Data1!$N$1:$N$10,Data1!$N$11:$N$617</definedName>
-    <definedName name="A2718182J_Data">Data1!$N$11:$N$617</definedName>
-    <definedName name="A2718182J_Latest">Data1!$N$617</definedName>
-    <definedName name="A2718320V">Data1!$O$1:$O$10,Data1!$O$11:$O$617</definedName>
-    <definedName name="A2718320V_Data">Data1!$O$11:$O$617</definedName>
-    <definedName name="A2718320V_Latest">Data1!$O$617</definedName>
-    <definedName name="A2718332C">Data1!$I$1:$I$10,Data1!$I$11:$I$617</definedName>
-    <definedName name="A2718332C_Data">Data1!$I$11:$I$617</definedName>
-    <definedName name="A2718332C_Latest">Data1!$I$617</definedName>
-    <definedName name="A2718454A">Data1!$P$1:$P$10,Data1!$P$11:$P$617</definedName>
-    <definedName name="A2718454A_Data">Data1!$P$11:$P$617</definedName>
-    <definedName name="A2718454A_Latest">Data1!$P$617</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$617</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$617</definedName>
+    <definedName name="A2717881A">Data1!$D$1:$D$10,Data1!$D$11:$D$620</definedName>
+    <definedName name="A2717881A_Data">Data1!$D$11:$D$620</definedName>
+    <definedName name="A2717881A_Latest">Data1!$D$620</definedName>
+    <definedName name="A2717883F">Data1!$C$1:$C$10,Data1!$C$11:$C$620</definedName>
+    <definedName name="A2717883F_Data">Data1!$C$11:$C$620</definedName>
+    <definedName name="A2717883F_Latest">Data1!$C$620</definedName>
+    <definedName name="A2717884J">Data1!$E$1:$E$10,Data1!$E$11:$E$620</definedName>
+    <definedName name="A2717884J_Data">Data1!$E$11:$E$620</definedName>
+    <definedName name="A2717884J_Latest">Data1!$E$620</definedName>
+    <definedName name="A2717891F">Data1!$J$1:$J$10,Data1!$J$11:$J$620</definedName>
+    <definedName name="A2717891F_Data">Data1!$J$11:$J$620</definedName>
+    <definedName name="A2717891F_Latest">Data1!$J$620</definedName>
+    <definedName name="A2717903C">Data1!$B$1:$B$10,Data1!$B$11:$B$620</definedName>
+    <definedName name="A2717903C_Data">Data1!$B$11:$B$620</definedName>
+    <definedName name="A2717903C_Latest">Data1!$B$620</definedName>
+    <definedName name="A2717931L">Data1!$F$1:$F$10,Data1!$F$11:$F$620</definedName>
+    <definedName name="A2717931L_Data">Data1!$F$11:$F$620</definedName>
+    <definedName name="A2717931L_Latest">Data1!$F$620</definedName>
+    <definedName name="A2718034F">Data1!$G$1:$G$10,Data1!$G$11:$G$620</definedName>
+    <definedName name="A2718034F_Data">Data1!$G$11:$G$620</definedName>
+    <definedName name="A2718034F_Latest">Data1!$G$620</definedName>
+    <definedName name="A2718037L">Data1!$H$1:$H$10,Data1!$H$11:$H$620</definedName>
+    <definedName name="A2718037L_Data">Data1!$H$11:$H$620</definedName>
+    <definedName name="A2718037L_Latest">Data1!$H$620</definedName>
+    <definedName name="A2718054R">Data1!$K$1:$K$10,Data1!$K$11:$K$620</definedName>
+    <definedName name="A2718054R_Data">Data1!$K$11:$K$620</definedName>
+    <definedName name="A2718054R_Latest">Data1!$K$620</definedName>
+    <definedName name="A2718056V">Data1!$L$1:$L$10,Data1!$L$11:$L$620</definedName>
+    <definedName name="A2718056V_Data">Data1!$L$11:$L$620</definedName>
+    <definedName name="A2718056V_Latest">Data1!$L$620</definedName>
+    <definedName name="A2718126R">Data1!$M$1:$M$10,Data1!$M$11:$M$620</definedName>
+    <definedName name="A2718126R_Data">Data1!$M$11:$M$620</definedName>
+    <definedName name="A2718126R_Latest">Data1!$M$620</definedName>
+    <definedName name="A2718182J">Data1!$N$1:$N$10,Data1!$N$11:$N$620</definedName>
+    <definedName name="A2718182J_Data">Data1!$N$11:$N$620</definedName>
+    <definedName name="A2718182J_Latest">Data1!$N$620</definedName>
+    <definedName name="A2718320V">Data1!$O$1:$O$10,Data1!$O$11:$O$620</definedName>
+    <definedName name="A2718320V_Data">Data1!$O$11:$O$620</definedName>
+    <definedName name="A2718320V_Latest">Data1!$O$620</definedName>
+    <definedName name="A2718332C">Data1!$I$1:$I$10,Data1!$I$11:$I$620</definedName>
+    <definedName name="A2718332C_Data">Data1!$I$11:$I$620</definedName>
+    <definedName name="A2718332C_Latest">Data1!$I$620</definedName>
+    <definedName name="A2718454A">Data1!$P$1:$P$10,Data1!$P$11:$P$620</definedName>
+    <definedName name="A2718454A_Data">Data1!$P$11:$P$620</definedName>
+    <definedName name="A2718454A_Latest">Data1!$P$620</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$620</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$620</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -7308,10 +7308,10 @@
         <v>26115</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -7340,10 +7340,10 @@
         <v>26115</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -7372,10 +7372,10 @@
         <v>26115</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -7404,10 +7404,10 @@
         <v>26115</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -7436,10 +7436,10 @@
         <v>26115</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
@@ -7468,10 +7468,10 @@
         <v>26115</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
@@ -7500,10 +7500,10 @@
         <v>26115</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
@@ -7532,10 +7532,10 @@
         <v>26115</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
@@ -7564,10 +7564,10 @@
         <v>26115</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
@@ -7596,10 +7596,10 @@
         <v>26115</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>24</v>
@@ -7628,10 +7628,10 @@
         <v>26115</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>24</v>
@@ -7660,10 +7660,10 @@
         <v>26115</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>24</v>
@@ -7692,10 +7692,10 @@
         <v>26115</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>24</v>
@@ -7724,10 +7724,10 @@
         <v>26115</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>24</v>
@@ -7756,10 +7756,10 @@
         <v>26115</v>
       </c>
       <c r="G26" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>24</v>
@@ -7809,7 +7809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P617"/>
+  <dimension ref="A1:P620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -8175,49 +8175,49 @@
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -8225,49 +8225,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="O9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="P9" s="1">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -36765,10 +36765,10 @@
         <v>44013</v>
       </c>
       <c r="B599" s="8">
-        <v>3602</v>
+        <v>3594</v>
       </c>
       <c r="C599" s="8">
-        <v>34027</v>
+        <v>34024</v>
       </c>
       <c r="D599" s="8">
         <v>28809</v>
@@ -36786,10 +36786,10 @@
         <v>3614</v>
       </c>
       <c r="I599" s="8">
-        <v>5218</v>
+        <v>5215</v>
       </c>
       <c r="J599" s="8">
-        <v>-30425</v>
+        <v>-30430</v>
       </c>
       <c r="K599" s="8">
         <v>-26637</v>
@@ -36807,7 +36807,7 @@
         <v>-1106</v>
       </c>
       <c r="P599" s="8">
-        <v>-3788</v>
+        <v>-3793</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.2">
@@ -36815,10 +36815,10 @@
         <v>44044</v>
       </c>
       <c r="B600" s="8">
-        <v>4102</v>
+        <v>4083</v>
       </c>
       <c r="C600" s="8">
-        <v>33230</v>
+        <v>33227</v>
       </c>
       <c r="D600" s="8">
         <v>28135</v>
@@ -36836,10 +36836,10 @@
         <v>1378</v>
       </c>
       <c r="I600" s="8">
-        <v>5095</v>
+        <v>5092</v>
       </c>
       <c r="J600" s="8">
-        <v>-29128</v>
+        <v>-29144</v>
       </c>
       <c r="K600" s="8">
         <v>-25382</v>
@@ -36857,7 +36857,7 @@
         <v>-1211</v>
       </c>
       <c r="P600" s="8">
-        <v>-3746</v>
+        <v>-3762</v>
       </c>
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.2">
@@ -36865,7 +36865,7 @@
         <v>44075</v>
       </c>
       <c r="B601" s="8">
-        <v>4876</v>
+        <v>4862</v>
       </c>
       <c r="C601" s="8">
         <v>33399</v>
@@ -36889,7 +36889,7 @@
         <v>5031</v>
       </c>
       <c r="J601" s="8">
-        <v>-28523</v>
+        <v>-28537</v>
       </c>
       <c r="K601" s="8">
         <v>-24795</v>
@@ -36907,7 +36907,7 @@
         <v>-707</v>
       </c>
       <c r="P601" s="8">
-        <v>-3728</v>
+        <v>-3742</v>
       </c>
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.2">
@@ -36915,10 +36915,10 @@
         <v>44105</v>
       </c>
       <c r="B602" s="8">
-        <v>4925</v>
+        <v>4905</v>
       </c>
       <c r="C602" s="8">
-        <v>35772</v>
+        <v>35771</v>
       </c>
       <c r="D602" s="8">
         <v>30212</v>
@@ -36936,10 +36936,10 @@
         <v>1987</v>
       </c>
       <c r="I602" s="8">
-        <v>5560</v>
+        <v>5559</v>
       </c>
       <c r="J602" s="8">
-        <v>-30847</v>
+        <v>-30866</v>
       </c>
       <c r="K602" s="8">
         <v>-26670</v>
@@ -36957,7 +36957,7 @@
         <v>-475</v>
       </c>
       <c r="P602" s="8">
-        <v>-4177</v>
+        <v>-4196</v>
       </c>
     </row>
     <row r="603" spans="1:16" x14ac:dyDescent="0.2">
@@ -36965,10 +36965,10 @@
         <v>44136</v>
       </c>
       <c r="B603" s="8">
-        <v>2188</v>
+        <v>2166</v>
       </c>
       <c r="C603" s="8">
-        <v>35811</v>
+        <v>35810</v>
       </c>
       <c r="D603" s="8">
         <v>30276</v>
@@ -36986,10 +36986,10 @@
         <v>2875</v>
       </c>
       <c r="I603" s="8">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="J603" s="8">
-        <v>-33623</v>
+        <v>-33644</v>
       </c>
       <c r="K603" s="8">
         <v>-29295</v>
@@ -37007,7 +37007,7 @@
         <v>-526</v>
       </c>
       <c r="P603" s="8">
-        <v>-4328</v>
+        <v>-4349</v>
       </c>
     </row>
     <row r="604" spans="1:16" x14ac:dyDescent="0.2">
@@ -37015,10 +37015,10 @@
         <v>44166</v>
       </c>
       <c r="B604" s="8">
-        <v>9169</v>
+        <v>9143</v>
       </c>
       <c r="C604" s="8">
-        <v>40863</v>
+        <v>40858</v>
       </c>
       <c r="D604" s="8">
         <v>35385</v>
@@ -37036,10 +37036,10 @@
         <v>2797</v>
       </c>
       <c r="I604" s="8">
-        <v>5478</v>
+        <v>5473</v>
       </c>
       <c r="J604" s="8">
-        <v>-31694</v>
+        <v>-31715</v>
       </c>
       <c r="K604" s="8">
         <v>-27384</v>
@@ -37057,7 +37057,7 @@
         <v>-580</v>
       </c>
       <c r="P604" s="8">
-        <v>-4310</v>
+        <v>-4331</v>
       </c>
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.2">
@@ -37065,10 +37065,10 @@
         <v>44197</v>
       </c>
       <c r="B605" s="8">
-        <v>9155</v>
+        <v>9136</v>
       </c>
       <c r="C605" s="8">
-        <v>37295</v>
+        <v>37289</v>
       </c>
       <c r="D605" s="8">
         <v>31909</v>
@@ -37086,10 +37086,10 @@
         <v>2656</v>
       </c>
       <c r="I605" s="8">
-        <v>5386</v>
+        <v>5380</v>
       </c>
       <c r="J605" s="8">
-        <v>-28140</v>
+        <v>-28153</v>
       </c>
       <c r="K605" s="8">
         <v>-24276</v>
@@ -37107,7 +37107,7 @@
         <v>-445</v>
       </c>
       <c r="P605" s="8">
-        <v>-3864</v>
+        <v>-3877</v>
       </c>
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.2">
@@ -37115,10 +37115,10 @@
         <v>44228</v>
       </c>
       <c r="B606" s="8">
-        <v>8498</v>
+        <v>8478</v>
       </c>
       <c r="C606" s="8">
-        <v>37376</v>
+        <v>37370</v>
       </c>
       <c r="D606" s="8">
         <v>32007</v>
@@ -37136,10 +37136,10 @@
         <v>2825</v>
       </c>
       <c r="I606" s="8">
-        <v>5369</v>
+        <v>5363</v>
       </c>
       <c r="J606" s="8">
-        <v>-28878</v>
+        <v>-28892</v>
       </c>
       <c r="K606" s="8">
         <v>-24991</v>
@@ -37157,7 +37157,7 @@
         <v>-452</v>
       </c>
       <c r="P606" s="8">
-        <v>-3887</v>
+        <v>-3901</v>
       </c>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.2">
@@ -37165,10 +37165,10 @@
         <v>44256</v>
       </c>
       <c r="B607" s="8">
-        <v>8830</v>
+        <v>8803</v>
       </c>
       <c r="C607" s="8">
-        <v>41324</v>
+        <v>41313</v>
       </c>
       <c r="D607" s="8">
         <v>36106</v>
@@ -37186,10 +37186,10 @@
         <v>2120</v>
       </c>
       <c r="I607" s="8">
-        <v>5218</v>
+        <v>5207</v>
       </c>
       <c r="J607" s="8">
-        <v>-32494</v>
+        <v>-32510</v>
       </c>
       <c r="K607" s="8">
         <v>-28443</v>
@@ -37207,7 +37207,7 @@
         <v>-981</v>
       </c>
       <c r="P607" s="8">
-        <v>-4051</v>
+        <v>-4067</v>
       </c>
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.2">
@@ -37215,10 +37215,10 @@
         <v>44287</v>
       </c>
       <c r="B608" s="8">
-        <v>9511</v>
+        <v>9422</v>
       </c>
       <c r="C608" s="8">
-        <v>40428</v>
+        <v>40413</v>
       </c>
       <c r="D608" s="8">
         <v>35544</v>
@@ -37236,19 +37236,19 @@
         <v>1778</v>
       </c>
       <c r="I608" s="8">
-        <v>4884</v>
+        <v>4869</v>
       </c>
       <c r="J608" s="8">
-        <v>-30917</v>
+        <v>-30991</v>
       </c>
       <c r="K608" s="8">
-        <v>-26734</v>
+        <v>-26792</v>
       </c>
       <c r="L608" s="8">
         <v>-9249</v>
       </c>
       <c r="M608" s="8">
-        <v>-6318</v>
+        <v>-6376</v>
       </c>
       <c r="N608" s="8">
         <v>-10641</v>
@@ -37257,7 +37257,7 @@
         <v>-526</v>
       </c>
       <c r="P608" s="8">
-        <v>-4183</v>
+        <v>-4199</v>
       </c>
     </row>
     <row r="609" spans="1:16" x14ac:dyDescent="0.2">
@@ -37265,10 +37265,10 @@
         <v>44317</v>
       </c>
       <c r="B609" s="8">
-        <v>12132</v>
+        <v>12039</v>
       </c>
       <c r="C609" s="8">
-        <v>43608</v>
+        <v>43593</v>
       </c>
       <c r="D609" s="8">
         <v>38680</v>
@@ -37286,19 +37286,19 @@
         <v>1818</v>
       </c>
       <c r="I609" s="8">
-        <v>4928</v>
+        <v>4913</v>
       </c>
       <c r="J609" s="8">
-        <v>-31476</v>
+        <v>-31554</v>
       </c>
       <c r="K609" s="8">
-        <v>-27234</v>
+        <v>-27292</v>
       </c>
       <c r="L609" s="8">
         <v>-9066</v>
       </c>
       <c r="M609" s="8">
-        <v>-6492</v>
+        <v>-6550</v>
       </c>
       <c r="N609" s="8">
         <v>-10791</v>
@@ -37307,7 +37307,7 @@
         <v>-885</v>
       </c>
       <c r="P609" s="8">
-        <v>-4242</v>
+        <v>-4262</v>
       </c>
     </row>
     <row r="610" spans="1:16" x14ac:dyDescent="0.2">
@@ -37315,10 +37315,10 @@
         <v>44348</v>
       </c>
       <c r="B610" s="8">
-        <v>13504</v>
+        <v>13414</v>
       </c>
       <c r="C610" s="8">
-        <v>46184</v>
+        <v>46172</v>
       </c>
       <c r="D610" s="8">
         <v>41281</v>
@@ -37336,19 +37336,19 @@
         <v>2139</v>
       </c>
       <c r="I610" s="8">
-        <v>4903</v>
+        <v>4891</v>
       </c>
       <c r="J610" s="8">
-        <v>-32680</v>
+        <v>-32758</v>
       </c>
       <c r="K610" s="8">
-        <v>-28326</v>
+        <v>-28384</v>
       </c>
       <c r="L610" s="8">
         <v>-9373</v>
       </c>
       <c r="M610" s="8">
-        <v>-7178</v>
+        <v>-7236</v>
       </c>
       <c r="N610" s="8">
         <v>-11212</v>
@@ -37357,7 +37357,7 @@
         <v>-563</v>
       </c>
       <c r="P610" s="8">
-        <v>-4354</v>
+        <v>-4374</v>
       </c>
     </row>
     <row r="611" spans="1:16" x14ac:dyDescent="0.2">
@@ -37365,19 +37365,19 @@
         <v>44378</v>
       </c>
       <c r="B611" s="8">
-        <v>13860</v>
+        <v>13644</v>
       </c>
       <c r="C611" s="8">
-        <v>47011</v>
+        <v>46836</v>
       </c>
       <c r="D611" s="8">
-        <v>42026</v>
+        <v>42038</v>
       </c>
       <c r="E611" s="8">
-        <v>4881</v>
+        <v>4877</v>
       </c>
       <c r="F611" s="8">
-        <v>35040</v>
+        <v>35056</v>
       </c>
       <c r="G611" s="8">
         <v>21</v>
@@ -37386,28 +37386,28 @@
         <v>2084</v>
       </c>
       <c r="I611" s="8">
-        <v>4985</v>
+        <v>4798</v>
       </c>
       <c r="J611" s="8">
-        <v>-33151</v>
+        <v>-33192</v>
       </c>
       <c r="K611" s="8">
-        <v>-28690</v>
+        <v>-28688</v>
       </c>
       <c r="L611" s="8">
         <v>-9420</v>
       </c>
       <c r="M611" s="8">
-        <v>-6997</v>
+        <v>-6998</v>
       </c>
       <c r="N611" s="8">
-        <v>-11836</v>
+        <v>-11833</v>
       </c>
       <c r="O611" s="8">
         <v>-437</v>
       </c>
       <c r="P611" s="8">
-        <v>-4461</v>
+        <v>-4504</v>
       </c>
     </row>
     <row r="612" spans="1:16" x14ac:dyDescent="0.2">
@@ -37415,49 +37415,49 @@
         <v>44409</v>
       </c>
       <c r="B612" s="8">
-        <v>13669</v>
+        <v>13249</v>
       </c>
       <c r="C612" s="8">
-        <v>47373</v>
+        <v>46996</v>
       </c>
       <c r="D612" s="8">
-        <v>42476</v>
+        <v>42292</v>
       </c>
       <c r="E612" s="8">
-        <v>4895</v>
+        <v>4882</v>
       </c>
       <c r="F612" s="8">
-        <v>35126</v>
+        <v>34954</v>
       </c>
       <c r="G612" s="8">
         <v>21</v>
       </c>
       <c r="H612" s="8">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="I612" s="8">
-        <v>4897</v>
+        <v>4704</v>
       </c>
       <c r="J612" s="8">
-        <v>-33704</v>
+        <v>-33747</v>
       </c>
       <c r="K612" s="8">
-        <v>-29178</v>
+        <v>-29177</v>
       </c>
       <c r="L612" s="8">
-        <v>-9780</v>
+        <v>-9781</v>
       </c>
       <c r="M612" s="8">
-        <v>-7021</v>
+        <v>-7020</v>
       </c>
       <c r="N612" s="8">
-        <v>-11786</v>
+        <v>-11785</v>
       </c>
       <c r="O612" s="8">
         <v>-591</v>
       </c>
       <c r="P612" s="8">
-        <v>-4526</v>
+        <v>-4570</v>
       </c>
     </row>
     <row r="613" spans="1:16" x14ac:dyDescent="0.2">
@@ -37465,49 +37465,49 @@
         <v>44440</v>
       </c>
       <c r="B613" s="8">
-        <v>8983</v>
+        <v>8562</v>
       </c>
       <c r="C613" s="8">
-        <v>42974</v>
+        <v>42600</v>
       </c>
       <c r="D613" s="8">
-        <v>38122</v>
+        <v>37943</v>
       </c>
       <c r="E613" s="8">
-        <v>4401</v>
+        <v>4397</v>
       </c>
       <c r="F613" s="8">
-        <v>32260</v>
+        <v>32099</v>
       </c>
       <c r="G613" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H613" s="8">
         <v>1438</v>
       </c>
       <c r="I613" s="8">
-        <v>4852</v>
+        <v>4657</v>
       </c>
       <c r="J613" s="8">
-        <v>-33991</v>
+        <v>-34038</v>
       </c>
       <c r="K613" s="8">
-        <v>-29248</v>
+        <v>-29249</v>
       </c>
       <c r="L613" s="8">
-        <v>-9411</v>
+        <v>-9414</v>
       </c>
       <c r="M613" s="8">
-        <v>-7463</v>
+        <v>-7460</v>
       </c>
       <c r="N613" s="8">
-        <v>-11975</v>
+        <v>-11976</v>
       </c>
       <c r="O613" s="8">
         <v>-399</v>
       </c>
       <c r="P613" s="8">
-        <v>-4743</v>
+        <v>-4789</v>
       </c>
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.2">
@@ -37515,19 +37515,19 @@
         <v>44470</v>
       </c>
       <c r="B614" s="8">
-        <v>9716</v>
+        <v>9201</v>
       </c>
       <c r="C614" s="8">
-        <v>43079</v>
+        <v>42907</v>
       </c>
       <c r="D614" s="8">
-        <v>38202</v>
+        <v>38157</v>
       </c>
       <c r="E614" s="8">
-        <v>4442</v>
+        <v>4431</v>
       </c>
       <c r="F614" s="8">
-        <v>31431</v>
+        <v>31397</v>
       </c>
       <c r="G614" s="8">
         <v>32</v>
@@ -37536,28 +37536,28 @@
         <v>2297</v>
       </c>
       <c r="I614" s="8">
-        <v>4877</v>
+        <v>4750</v>
       </c>
       <c r="J614" s="8">
-        <v>-33363</v>
+        <v>-33706</v>
       </c>
       <c r="K614" s="8">
-        <v>-28583</v>
+        <v>-28601</v>
       </c>
       <c r="L614" s="8">
-        <v>-9138</v>
+        <v>-9132</v>
       </c>
       <c r="M614" s="8">
-        <v>-6778</v>
+        <v>-6773</v>
       </c>
       <c r="N614" s="8">
-        <v>-12305</v>
+        <v>-12334</v>
       </c>
       <c r="O614" s="8">
         <v>-362</v>
       </c>
       <c r="P614" s="8">
-        <v>-4780</v>
+        <v>-5105</v>
       </c>
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.2">
@@ -37565,49 +37565,49 @@
         <v>44501</v>
       </c>
       <c r="B615" s="8">
-        <v>6738</v>
+        <v>6559</v>
       </c>
       <c r="C615" s="8">
-        <v>45243</v>
+        <v>45473</v>
       </c>
       <c r="D615" s="8">
-        <v>40366</v>
+        <v>40728</v>
       </c>
       <c r="E615" s="8">
-        <v>5131</v>
+        <v>5144</v>
       </c>
       <c r="F615" s="8">
-        <v>33232</v>
+        <v>33582</v>
       </c>
       <c r="G615" s="8">
         <v>32</v>
       </c>
       <c r="H615" s="8">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="I615" s="8">
-        <v>4877</v>
+        <v>4745</v>
       </c>
       <c r="J615" s="8">
-        <v>-38505</v>
+        <v>-38914</v>
       </c>
       <c r="K615" s="8">
-        <v>-33303</v>
+        <v>-33330</v>
       </c>
       <c r="L615" s="8">
-        <v>-10198</v>
+        <v>-10199</v>
       </c>
       <c r="M615" s="8">
-        <v>-8317</v>
+        <v>-8348</v>
       </c>
       <c r="N615" s="8">
-        <v>-14314</v>
+        <v>-14309</v>
       </c>
       <c r="O615" s="8">
         <v>-474</v>
       </c>
       <c r="P615" s="8">
-        <v>-5202</v>
+        <v>-5584</v>
       </c>
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.2">
@@ -37615,49 +37615,49 @@
         <v>44531</v>
       </c>
       <c r="B616" s="8">
-        <v>9188</v>
+        <v>8588</v>
       </c>
       <c r="C616" s="8">
-        <v>48219</v>
+        <v>48314</v>
       </c>
       <c r="D616" s="8">
-        <v>43264</v>
+        <v>43487</v>
       </c>
       <c r="E616" s="8">
-        <v>5621</v>
+        <v>5364</v>
       </c>
       <c r="F616" s="8">
-        <v>35314</v>
+        <v>35792</v>
       </c>
       <c r="G616" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H616" s="8">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="I616" s="8">
-        <v>4955</v>
+        <v>4827</v>
       </c>
       <c r="J616" s="8">
-        <v>-39031</v>
+        <v>-39726</v>
       </c>
       <c r="K616" s="8">
-        <v>-33786</v>
+        <v>-34107</v>
       </c>
       <c r="L616" s="8">
-        <v>-10383</v>
+        <v>-10381</v>
       </c>
       <c r="M616" s="8">
-        <v>-8317</v>
+        <v>-8301</v>
       </c>
       <c r="N616" s="8">
-        <v>-14515</v>
+        <v>-14854</v>
       </c>
       <c r="O616" s="8">
         <v>-571</v>
       </c>
       <c r="P616" s="8">
-        <v>-5245</v>
+        <v>-5619</v>
       </c>
     </row>
     <row r="617" spans="1:16" x14ac:dyDescent="0.2">
@@ -37665,49 +37665,199 @@
         <v>44562</v>
       </c>
       <c r="B617" s="8">
-        <v>12088</v>
+        <v>12623</v>
       </c>
       <c r="C617" s="8">
-        <v>47000</v>
+        <v>47861</v>
       </c>
       <c r="D617" s="8">
-        <v>42126</v>
+        <v>42946</v>
       </c>
       <c r="E617" s="8">
-        <v>5366</v>
+        <v>5193</v>
       </c>
       <c r="F617" s="8">
-        <v>34766</v>
+        <v>35753</v>
       </c>
       <c r="G617" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H617" s="8">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="I617" s="8">
-        <v>4874</v>
+        <v>4915</v>
       </c>
       <c r="J617" s="8">
-        <v>-34912</v>
+        <v>-35238</v>
       </c>
       <c r="K617" s="8">
-        <v>-29845</v>
+        <v>-29879</v>
       </c>
       <c r="L617" s="8">
-        <v>-9076</v>
+        <v>-9191</v>
       </c>
       <c r="M617" s="8">
-        <v>-6749</v>
+        <v>-6727</v>
       </c>
       <c r="N617" s="8">
-        <v>-13506</v>
+        <v>-13447</v>
       </c>
       <c r="O617" s="8">
         <v>-514</v>
       </c>
       <c r="P617" s="8">
-        <v>-5067</v>
+        <v>-5359</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A618" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B618" s="8">
+        <v>7559</v>
+      </c>
+      <c r="C618" s="8">
+        <v>46617</v>
+      </c>
+      <c r="D618" s="8">
+        <v>41564</v>
+      </c>
+      <c r="E618" s="8">
+        <v>5397</v>
+      </c>
+      <c r="F618" s="8">
+        <v>33808</v>
+      </c>
+      <c r="G618" s="8">
+        <v>31</v>
+      </c>
+      <c r="H618" s="8">
+        <v>2328</v>
+      </c>
+      <c r="I618" s="8">
+        <v>5053</v>
+      </c>
+      <c r="J618" s="8">
+        <v>-39058</v>
+      </c>
+      <c r="K618" s="8">
+        <v>-33473</v>
+      </c>
+      <c r="L618" s="8">
+        <v>-10591</v>
+      </c>
+      <c r="M618" s="8">
+        <v>-7210</v>
+      </c>
+      <c r="N618" s="8">
+        <v>-15090</v>
+      </c>
+      <c r="O618" s="8">
+        <v>-582</v>
+      </c>
+      <c r="P618" s="8">
+        <v>-5585</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A619" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B619" s="8">
+        <v>11268</v>
+      </c>
+      <c r="C619" s="8">
+        <v>51968</v>
+      </c>
+      <c r="D619" s="8">
+        <v>46950</v>
+      </c>
+      <c r="E619" s="8">
+        <v>6223</v>
+      </c>
+      <c r="F619" s="8">
+        <v>38860</v>
+      </c>
+      <c r="G619" s="8">
+        <v>32</v>
+      </c>
+      <c r="H619" s="8">
+        <v>1835</v>
+      </c>
+      <c r="I619" s="8">
+        <v>5018</v>
+      </c>
+      <c r="J619" s="8">
+        <v>-40700</v>
+      </c>
+      <c r="K619" s="8">
+        <v>-34919</v>
+      </c>
+      <c r="L619" s="8">
+        <v>-10707</v>
+      </c>
+      <c r="M619" s="8">
+        <v>-7683</v>
+      </c>
+      <c r="N619" s="8">
+        <v>-15927</v>
+      </c>
+      <c r="O619" s="8">
+        <v>-602</v>
+      </c>
+      <c r="P619" s="8">
+        <v>-5781</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A620" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B620" s="8">
+        <v>12329</v>
+      </c>
+      <c r="C620" s="8">
+        <v>50324</v>
+      </c>
+      <c r="D620" s="8">
+        <v>45089</v>
+      </c>
+      <c r="E620" s="8">
+        <v>5896</v>
+      </c>
+      <c r="F620" s="8">
+        <v>37872</v>
+      </c>
+      <c r="G620" s="8">
+        <v>24</v>
+      </c>
+      <c r="H620" s="8">
+        <v>1297</v>
+      </c>
+      <c r="I620" s="8">
+        <v>5235</v>
+      </c>
+      <c r="J620" s="8">
+        <v>-37995</v>
+      </c>
+      <c r="K620" s="8">
+        <v>-32428</v>
+      </c>
+      <c r="L620" s="8">
+        <v>-9479</v>
+      </c>
+      <c r="M620" s="8">
+        <v>-7007</v>
+      </c>
+      <c r="N620" s="8">
+        <v>-15270</v>
+      </c>
+      <c r="O620" s="8">
+        <v>-672</v>
+      </c>
+      <c r="P620" s="8">
+        <v>-5567</v>
       </c>
     </row>
   </sheetData>
